--- a/_resource/excel/框架-属性定义-关系属性.xlsx
+++ b/_resource/excel/框架-属性定义-关系属性.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26310" windowHeight="13065"/>
   </bookViews>
   <sheets>
-    <sheet name="framerelationclass" sheetId="3" r:id="rId1"/>
+    <sheet name="relationclass" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -319,7 +319,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>#framerelationclass</t>
+    <t>#relationclass</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +327,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -338,18 +338,21 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -357,18 +360,21 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -402,12 +408,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -936,7 +936,7 @@
   <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -975,7 +975,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C1" s="10"/>
